--- a/7-Gráficos/14. Formatação Condicional de Gráfico (Parte 1) - Material(1).xlsx
+++ b/7-Gráficos/14. Formatação Condicional de Gráfico (Parte 1) - Material(1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e775ab26b5c1cdcb/Hashtag/Aulas Excel Impressionador/Módulo 10 - Gráficos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\cursos\excel\7-Gráficos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="13_ncr:1_{7BB362B6-3A84-447E-8AF8-8D5FF359ACCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{136C4EFA-E666-4319-9AEC-D5A2D55B4135}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49E74EF-19AE-444C-97B6-A50ECB4CB76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Format. Cond. - Parte 1" sheetId="5" r:id="rId1"/>
@@ -46,17 +46,31 @@
     <definedName name="Thresholds">#REF!</definedName>
     <definedName name="Username">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="52">
   <si>
     <t>Vendas</t>
   </si>
@@ -207,6 +221,12 @@
   <si>
     <t>y (2ª forma)</t>
   </si>
+  <si>
+    <t>Mínimo</t>
+  </si>
+  <si>
+    <t>Máximo</t>
+  </si>
 </sst>
 </file>
 
@@ -214,8 +234,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0_-;\-[$R$-416]\ * #,##0_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0_-;\-[$R$-416]\ * #,##0_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -531,28 +551,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -562,6 +579,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,6 +605,574 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Vendedores</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Format. Cond. - Parte 1'!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vendas 2021</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.7777777777777779E-3"/>
+                  <c:y val="-2.7777777777777863E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-49D4-4C52-953C-961B8BD545ED}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Format. Cond. - Parte 1'!$B$6:$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Alon</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jessica</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>João</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Lira</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Diego</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sergio</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Julia</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Luiza</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Maria</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Amanda</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Alessandra</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Marcus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Format. Cond. - Parte 1'!$C$6:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$R$-416]\ * #,##0_-;\-[$R$-416]\ * #,##0_-;_-[$R$-416]\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>10636</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11954</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18516</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16222</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9278</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8790</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19240</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14886</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6354</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11560</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-49D4-4C52-953C-961B8BD545ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Format. Cond. - Parte 1'!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bateu Meta?</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Format. Cond. - Parte 1'!$B$6:$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Alon</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jessica</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>João</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Lira</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Diego</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sergio</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Julia</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Luiza</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Maria</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Amanda</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Alessandra</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Marcus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Format. Cond. - Parte 1'!$D$6:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$R$-416]\ * #,##0_-;\-[$R$-416]\ * #,##0_-;_-[$R$-416]\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18516</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16222</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19240</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-49D4-4C52-953C-961B8BD545ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="100"/>
+        <c:axId val="44729728"/>
+        <c:axId val="39227584"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="44729728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="39227584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="39227584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="_-[$R$-416]\ * #,##0_-;\-[$R$-416]\ * #,##0_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="44729728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -1103,7 +1691,617 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Devoluções</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.624781277340333E-2"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.87875218722659665"/>
+          <c:h val="0.74375984251968508"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Format. Cond. - Parte 2'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% Devolução</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Format. Cond. - Parte 2'!$B$3:$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Apple</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Canon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Samsung</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dell</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Acer</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Xiaomi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Motorola</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Huawei</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Nokia</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Asus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Format. Cond. - Parte 2'!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.7E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D884-49CB-BE4D-AAD3CD0E061F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Format. Cond. - Parte 2'!$B$3:$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Apple</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Canon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Samsung</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dell</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Acer</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Xiaomi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Motorola</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Huawei</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Nokia</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Asus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Format. Cond. - Parte 2'!$D$3:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D884-49CB-BE4D-AAD3CD0E061F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Format. Cond. - Parte 2'!$B$3:$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Apple</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Canon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Samsung</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dell</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Acer</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Xiaomi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Motorola</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Huawei</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Nokia</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Asus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Format. Cond. - Parte 2'!$E$3:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D884-49CB-BE4D-AAD3CD0E061F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="100"/>
+        <c:axId val="207877935"/>
+        <c:axId val="207878895"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="207877935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="207878895"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="207878895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="207877935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:srgbClr val="002060"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:outerShdw blurRad="50800" dist="38100" algn="l" rotWithShape="0">
+        <a:prstClr val="black">
+          <a:alpha val="40000"/>
+        </a:prstClr>
+      </a:outerShdw>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -1704,7 +2902,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -2123,7 +3321,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -2754,6 +3952,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4766,7 +6044,1054 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>415017</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>272142</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD648777-FB71-57B9-03E7-2A892F8ABB93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4807,7 +7132,48 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>151087</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>17736</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>118242</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>93936</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B35A6FA8-3D07-A15F-D02E-5BD924B0B242}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4848,7 +7214,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4891,7 +7257,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5195,136 +7561,190 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2872085-859D-4884-BA1A-624D4790CA81}">
-  <dimension ref="B1:C17"/>
+  <dimension ref="B1:D17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.26953125" customWidth="1"/>
-    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="12" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="6" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="17">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+        <v>16000</v>
+      </c>
+      <c r="D3" s="17"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D5" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="13">
         <v>10636</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D6" s="13">
+        <f>IF($C6&gt;=$C$3, $C6, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="14">
         <v>3384</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D7" s="14">
+        <f t="shared" ref="D6:D17" si="0">IF($C7&gt;=$C$3, $C7, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="13">
         <v>11954</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D8" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="14">
         <v>18516</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D9" s="14">
+        <f t="shared" si="0"/>
+        <v>18516</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="13">
         <v>16222</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D10" s="13">
+        <f t="shared" si="0"/>
+        <v>16222</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="14">
         <v>9278</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="13">
         <v>8790</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D12" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="14">
         <v>19240</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D13" s="14">
+        <f t="shared" si="0"/>
+        <v>19240</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="13">
         <v>14886</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D14" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="14">
         <v>6354</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D15" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="13">
         <v>11560</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D16" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="15">
         <v>13700</v>
+      </c>
+      <c r="D17" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5332,19 +7752,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.26953125" customWidth="1"/>
-    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" hidden="1" customWidth="1"/>
-    <col min="5" max="13" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="13" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="6" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
         <v>3</v>
       </c>
@@ -5352,7 +7774,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
@@ -5363,7 +7785,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>5</v>
       </c>
@@ -5375,7 +7797,7 @@
         <v>10636</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>6</v>
       </c>
@@ -5387,7 +7809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>7</v>
       </c>
@@ -5399,7 +7821,7 @@
         <v>11954</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>8</v>
       </c>
@@ -5411,7 +7833,7 @@
         <v>18516</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>9</v>
       </c>
@@ -5423,7 +7845,7 @@
         <v>16222</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -5435,7 +7857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>11</v>
       </c>
@@ -5447,7 +7869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
         <v>12</v>
       </c>
@@ -5459,7 +7881,7 @@
         <v>19240</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>13</v>
       </c>
@@ -5471,7 +7893,7 @@
         <v>14886</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
         <v>14</v>
       </c>
@@ -5483,7 +7905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>15</v>
       </c>
@@ -5495,7 +7917,7 @@
         <v>11560</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
         <v>16</v>
       </c>
@@ -5516,110 +7938,217 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39646D8-A99C-4116-A4F1-2A57C30445C8}">
-  <dimension ref="B1:C12"/>
+  <dimension ref="B1:E15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.26953125" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="6" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:5" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="18">
         <v>3.5000000000000003E-2</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D3" s="18">
+        <f>IF(C3=$C$14,C3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="18">
+        <f>IF(C3=$C$15,C3,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="18">
-        <v>3.5999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D4" s="18">
+        <f t="shared" ref="D4:D12" si="0">IF(C4=$C$14,C4,0)</f>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E4" s="18">
+        <f t="shared" ref="E4:E12" si="1">IF(C4=$C$15,C4,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="18">
         <v>4.3999999999999997E-2</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D5" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="18">
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D6" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="18">
         <v>1.9E-2</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D7" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="18">
         <v>4.2000000000000003E-2</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D8" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="18">
         <v>1.4E-2</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D9" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="18">
         <v>2.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D10" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="18">
         <v>5.3999999999999999E-2</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D11" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="18">
+        <f t="shared" si="1"/>
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="18">
         <v>4.7E-2</v>
+      </c>
+      <c r="D12" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="19">
+        <f>MIN(C3:C12)</f>
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="19">
+        <f>MAX(C3:C12)</f>
+        <v>5.3999999999999999E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5629,17 +8158,17 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.26953125" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" hidden="1" customWidth="1"/>
-    <col min="6" max="13" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="6" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:5" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
@@ -5653,7 +8182,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
@@ -5669,7 +8198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
@@ -5685,7 +8214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
@@ -5701,7 +8230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
@@ -5717,7 +8246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
@@ -5733,7 +8262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
@@ -5749,7 +8278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
@@ -5765,7 +8294,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
@@ -5781,7 +8310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
@@ -5797,7 +8326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
@@ -5813,7 +8342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
@@ -5822,7 +8351,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
@@ -5846,23 +8375,23 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.81640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="12" width="6.54296875" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="4"/>
+    <col min="1" max="1" width="5.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="6.5703125" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="20">
+    <row r="1" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="29">
         <v>2021</v>
       </c>
-      <c r="C2" s="20"/>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C2" s="29"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
@@ -5870,7 +8399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -5878,7 +8407,7 @@
         <v>5318</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -5886,7 +8415,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>34</v>
       </c>
@@ -5894,7 +8423,7 @@
         <v>5977</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>35</v>
       </c>
@@ -5902,7 +8431,7 @@
         <v>9528</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>36</v>
       </c>
@@ -5910,7 +8439,7 @@
         <v>8111</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>37</v>
       </c>
@@ -5918,7 +8447,7 @@
         <v>4639</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>38</v>
       </c>
@@ -5926,7 +8455,7 @@
         <v>6895</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>39</v>
       </c>
@@ -5934,7 +8463,7 @@
         <v>9620</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>40</v>
       </c>
@@ -5942,7 +8471,7 @@
         <v>7443</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>41</v>
       </c>
@@ -5950,7 +8479,7 @@
         <v>3177</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>42</v>
       </c>
@@ -5958,7 +8487,7 @@
         <v>5780</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>43</v>
       </c>
@@ -5966,23 +8495,23 @@
         <v>7736</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21"/>
       <c r="C21"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22"/>
       <c r="C22"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23"/>
       <c r="C23"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24"/>
       <c r="C24"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25"/>
       <c r="C25"/>
     </row>
@@ -6002,22 +8531,22 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.81640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="12" width="6.54296875" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="4"/>
+    <col min="1" max="1" width="5.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="6.5703125" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4">
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
@@ -6025,7 +8554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -6036,7 +8565,7 @@
         <v>5318</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -6047,7 +8576,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -6058,7 +8587,7 @@
         <v>5977</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -6069,7 +8598,7 @@
         <v>9528</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -6080,7 +8609,7 @@
         <v>8111</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -6091,7 +8620,7 @@
         <v>4639</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -6102,7 +8631,7 @@
         <v>6895</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -6113,7 +8642,7 @@
         <v>9620</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -6124,7 +8653,7 @@
         <v>7443</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -6135,7 +8664,7 @@
         <v>3177</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -6146,7 +8675,7 @@
         <v>5780</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -6157,52 +8686,52 @@
         <v>7736</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="29" t="s">
+    <row r="21" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="28" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B22" s="21" t="s">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="21">
         <f>SLOPE(C4:C15,A4:A15)</f>
         <v>140.37762237762237</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B23" s="23" t="s">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="23">
         <f>INTERCEPT(C4:C15,A4:A15)</f>
         <v>5413.878787878788</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B24" s="23" t="s">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="23">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="25" t="s">
+    <row r="25" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C25" s="25">
         <f>C22*C24+C23</f>
         <v>7519.5431235431242</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="27" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="27" t="s">
+    <row r="26" spans="2:3" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="28">
+      <c r="C27" s="27">
         <f>_xlfn.FORECAST.LINEAR(C24,C4:C15,A4:A15)</f>
         <v>7519.5431235431242</v>
       </c>
